--- a/results/pvalue_SIDER_rare_target_AUPR+AUROC.xlsx
+++ b/results/pvalue_SIDER_rare_target_AUPR+AUROC.xlsx
@@ -498,7 +498,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.001</t>
+          <t>0.003</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -535,7 +535,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.001</t>
+          <t>0.002</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -572,12 +572,12 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.007</t>
+          <t>0.011</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.005</t>
+          <t>0.004</t>
         </is>
       </c>
     </row>
@@ -609,7 +609,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.001</t>
+          <t>0.003</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -626,22 +626,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>7.795</t>
+          <t>6.393</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>10.018</t>
+          <t>7.559</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5.001</t>
+          <t>4.47</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>8.171</t>
+          <t>6.414</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.009</t>
+          <t>0.016</t>
         </is>
       </c>
     </row>
@@ -663,27 +663,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>7.999</t>
+          <t>8.071</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>9.148</t>
+          <t>9.313</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>5.756</t>
+          <t>5.933</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>7.985</t>
+          <t>8.187</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.792</t>
+          <t>3.988</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
